--- a/agent/3C：副本.xlsx
+++ b/agent/3C：副本.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>国家</t>
   </si>
@@ -109,6 +109,78 @@
   </si>
   <si>
     <t>2023-07</t>
+  </si>
+  <si>
+    <t>2023-06</t>
+  </si>
+  <si>
+    <t>2023-05</t>
+  </si>
+  <si>
+    <t>2023-04</t>
+  </si>
+  <si>
+    <t>2023-03</t>
+  </si>
+  <si>
+    <t>2023-02</t>
+  </si>
+  <si>
+    <t>2023-01</t>
+  </si>
+  <si>
+    <t>2022-12</t>
+  </si>
+  <si>
+    <t>2022-11</t>
+  </si>
+  <si>
+    <t>2022-10</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>2022-08</t>
+  </si>
+  <si>
+    <t>2022-07</t>
+  </si>
+  <si>
+    <t>2022-06</t>
+  </si>
+  <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t>2022-01</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2021-08</t>
+  </si>
+  <si>
+    <t>2021-07</t>
   </si>
   <si>
     <t>US</t>
@@ -764,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +848,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -837,6 +912,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,10 +1195,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA198"/>
+  <dimension ref="A1:AY198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AX5" sqref="AX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1124,7 +1206,7 @@
     <col min="2" max="27" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" customHeight="1" spans="1:27">
+    <row r="1" ht="60" customHeight="1" spans="1:51">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1206,16 +1288,88 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:51">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3">
         <v>36859</v>
@@ -1287,6 +1441,78 @@
         <v>53223</v>
       </c>
       <c r="AA2" s="3">
+        <v>31499</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>36859</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>38632</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>50202</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>58555</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>51193</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>43200</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>57609</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>56791</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>39864</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>14498</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>15701</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>11867</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>14090</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>15607</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>14028</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>12711</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>12733</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>14540</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>15334</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>21753</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>32833</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>52567</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>53223</v>
+      </c>
+      <c r="AY2" s="3">
         <v>31499</v>
       </c>
     </row>
